--- a/data/assist.xlsx
+++ b/data/assist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luiz Gustavo\workspace\luiz\pipeline-3cx\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://getrak-my.sharepoint.com/personal/luiz_gustavo_getrak_onmicrosoft_com/Documents/Área de Trabalho/prog/pipeline-3cx/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0886E82C-4685-41B1-BC23-A360FB49BB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{0886E82C-4685-41B1-BC23-A360FB49BB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6E15003-CE44-45FE-B282-47D5DF10B43E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EDF7DFA9-5854-4D18-BCC0-5518CA0EA8E0}"/>
   </bookViews>
@@ -521,18 +521,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177BD7F7-4593-4B01-A7C0-41D1924415F4}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -543,7 +544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -553,8 +554,12 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="str">
+        <f>A2&amp;" ("&amp;B2&amp;")"</f>
+        <v>Adrian Silva (740)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -564,8 +569,12 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D12" si="0">A3&amp;" ("&amp;B3&amp;")"</f>
+        <v>Vitor Barros (650)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -575,8 +584,12 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>Christian Liz (742)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -586,8 +599,12 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>Diego Leandro (743)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -597,8 +614,12 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>Gerson Carneiro (744)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -608,8 +629,12 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>João Nascimento (745)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -619,8 +644,12 @@
       <c r="C8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>Keven Oliveira (746)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -630,8 +659,12 @@
       <c r="C9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>Larissa Almeida (747)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -641,8 +674,12 @@
       <c r="C10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>Mayra Silva (748)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -652,8 +689,12 @@
       <c r="C11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>Luiz Gustavo (749)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -663,8 +704,12 @@
       <c r="C12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>Rodolfo Getrak (750)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -674,8 +719,12 @@
       <c r="C13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="str">
+        <f>"Q "&amp;A13&amp;" ("&amp;B13&amp;")"</f>
+        <v>Q GETRAK ATENDE (801)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -685,8 +734,12 @@
       <c r="C14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="str">
+        <f t="shared" ref="D14:D34" si="1">"Q "&amp;A14&amp;" ("&amp;B14&amp;")"</f>
+        <v>Q GOLDENSERVICE (811)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -696,8 +749,12 @@
       <c r="C15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>Q STARCAR (812)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -707,8 +764,12 @@
       <c r="C16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>Q ROTA (813)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -718,8 +779,12 @@
       <c r="C17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>Q SOLUTION (814)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -729,8 +794,12 @@
       <c r="C18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>Q MAKMOS (816)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -740,8 +809,12 @@
       <c r="C19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>Q JRA (817)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -751,8 +824,12 @@
       <c r="C20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>Q ATENDE SC (818)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -762,8 +839,12 @@
       <c r="C21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>Q RASTREAR (819)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -773,8 +854,12 @@
       <c r="C22" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>Q MOTORS TRACKER (820)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -784,8 +869,12 @@
       <c r="C23" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>Q EXITUS (821)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -795,8 +884,12 @@
       <c r="C24" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>Q VIARASTREIO (823)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -806,8 +899,12 @@
       <c r="C25" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>Q ROMTRACKER (824)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -817,8 +914,12 @@
       <c r="C26" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>Q LVRASTREAR (826)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -828,8 +929,12 @@
       <c r="C27" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>Q RASTREIAFACIL (827)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -839,8 +944,12 @@
       <c r="C28" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>Q MAXSAFE (829)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -850,8 +959,12 @@
       <c r="C29" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>Q MEGABIP (830)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -861,8 +974,12 @@
       <c r="C30" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>Q PROTEGE BRASIL (831)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -872,8 +989,12 @@
       <c r="C31" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>Q FARO RASTREAMENTO (833)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -883,8 +1004,12 @@
       <c r="C32" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>Q GUARDIAORASTREAR (834)</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -894,8 +1019,12 @@
       <c r="C33" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>Q TAGRASTREAR (832)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -904,6 +1033,10 @@
       </c>
       <c r="C34" t="s">
         <v>16</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v>Q NEXOOS (835)</v>
       </c>
     </row>
   </sheetData>
